--- a/data/auxillary/Average consumption by age and gender.xlsx
+++ b/data/auxillary/Average consumption by age and gender.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,11 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Average amount consumed (g)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>AverageEnergyIntake</t>
         </is>
       </c>
@@ -520,6 +525,9 @@
         <v>733.5679047619046</v>
       </c>
       <c r="J2" t="n">
+        <v>257.5428571428571</v>
+      </c>
+      <c r="K2" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -558,6 +566,9 @@
         <v>8.853000000000002</v>
       </c>
       <c r="J3" t="n">
+        <v>4.178571428571429</v>
+      </c>
+      <c r="K3" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -596,6 +607,9 @@
         <v>3.460920168067228</v>
       </c>
       <c r="J4" t="n">
+        <v>17.34285714285715</v>
+      </c>
+      <c r="K4" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -634,6 +648,9 @@
         <v>100.7736522970421</v>
       </c>
       <c r="J5" t="n">
+        <v>51.83571428571429</v>
+      </c>
+      <c r="K5" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -672,6 +689,9 @@
         <v>130.1856550907656</v>
       </c>
       <c r="J6" t="n">
+        <v>106.9857142857143</v>
+      </c>
+      <c r="K6" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -710,6 +730,9 @@
         <v>352.1681476435936</v>
       </c>
       <c r="J7" t="n">
+        <v>192.4714285714286</v>
+      </c>
+      <c r="K7" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -748,6 +771,9 @@
         <v>1.111612903225807</v>
       </c>
       <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -786,6 +812,9 @@
         <v>158.9055778546713</v>
       </c>
       <c r="J9" t="n">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="K9" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -824,6 +853,9 @@
         <v>18.86079608294931</v>
       </c>
       <c r="J10" t="n">
+        <v>9.221428571428572</v>
+      </c>
+      <c r="K10" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -862,6 +894,9 @@
         <v>293.9273036630037</v>
       </c>
       <c r="J11" t="n">
+        <v>151.1214285714286</v>
+      </c>
+      <c r="K11" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -900,6 +935,9 @@
         <v>17.6529537815126</v>
       </c>
       <c r="J12" t="n">
+        <v>24.37857142857143</v>
+      </c>
+      <c r="K12" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -938,6 +976,9 @@
         <v>17.77227649769586</v>
       </c>
       <c r="J13" t="n">
+        <v>17.31428571428571</v>
+      </c>
+      <c r="K13" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -976,6 +1017,9 @@
         <v>43.51072784810127</v>
       </c>
       <c r="J14" t="n">
+        <v>86.52857142857144</v>
+      </c>
+      <c r="K14" t="n">
         <v>1594.390193936083</v>
       </c>
     </row>
@@ -1014,6 +1058,9 @@
         <v>994.0771653746768</v>
       </c>
       <c r="J15" t="n">
+        <v>349.0031007751938</v>
+      </c>
+      <c r="K15" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1052,6 +1099,9 @@
         <v>38.74039483204135</v>
       </c>
       <c r="J16" t="n">
+        <v>18.28527131782946</v>
+      </c>
+      <c r="K16" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1090,6 +1140,9 @@
         <v>4.664205414409716</v>
       </c>
       <c r="J17" t="n">
+        <v>23.37258424317322</v>
+      </c>
+      <c r="K17" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1128,6 +1181,9 @@
         <v>69.13148352286308</v>
       </c>
       <c r="J18" t="n">
+        <v>35.55968992248062</v>
+      </c>
+      <c r="K18" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1166,6 +1222,9 @@
         <v>183.0209677073965</v>
       </c>
       <c r="J19" t="n">
+        <v>150.4054263565891</v>
+      </c>
+      <c r="K19" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1204,6 +1263,9 @@
         <v>405.7303731946823</v>
       </c>
       <c r="J20" t="n">
+        <v>221.744939359566</v>
+      </c>
+      <c r="K20" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1242,6 +1304,9 @@
         <v>1.31153088272068</v>
       </c>
       <c r="J21" t="n">
+        <v>0.589922480620155</v>
+      </c>
+      <c r="K21" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1280,6 +1345,9 @@
         <v>180.0351811378451</v>
       </c>
       <c r="J22" t="n">
+        <v>106.9523255813954</v>
+      </c>
+      <c r="K22" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1318,6 +1386,9 @@
         <v>59.31752588147035</v>
       </c>
       <c r="J23" t="n">
+        <v>29.0015503875969</v>
+      </c>
+      <c r="K23" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1356,6 +1427,9 @@
         <v>204.9746659908567</v>
       </c>
       <c r="J24" t="n">
+        <v>105.3868217054264</v>
+      </c>
+      <c r="K24" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1394,6 +1468,9 @@
         <v>30.40283720930232</v>
       </c>
       <c r="J25" t="n">
+        <v>41.9860465116279</v>
+      </c>
+      <c r="K25" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1432,6 +1509,9 @@
         <v>25.70042893751741</v>
       </c>
       <c r="J26" t="n">
+        <v>25.03813001455184</v>
+      </c>
+      <c r="K26" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1470,6 +1550,9 @@
         <v>75.3952212530582</v>
       </c>
       <c r="J27" t="n">
+        <v>149.9363745498199</v>
+      </c>
+      <c r="K27" t="n">
         <v>1967.037588747091</v>
       </c>
     </row>
@@ -1508,6 +1591,9 @@
         <v>899.4446775147928</v>
       </c>
       <c r="J28" t="n">
+        <v>315.7792899408284</v>
+      </c>
+      <c r="K28" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1546,6 +1632,9 @@
         <v>39.69177830374754</v>
       </c>
       <c r="J29" t="n">
+        <v>18.73431952662722</v>
+      </c>
+      <c r="K29" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1584,6 +1673,9 @@
         <v>4.613705534284721</v>
       </c>
       <c r="J30" t="n">
+        <v>23.11952662721894</v>
+      </c>
+      <c r="K30" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1622,6 +1714,9 @@
         <v>88.95221192294656</v>
       </c>
       <c r="J31" t="n">
+        <v>45.75502958579882</v>
+      </c>
+      <c r="K31" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1660,6 +1755,9 @@
         <v>216.5598458596228</v>
       </c>
       <c r="J32" t="n">
+        <v>177.9674556213018</v>
+      </c>
+      <c r="K32" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1698,6 +1796,9 @@
         <v>439.8021330293419</v>
       </c>
       <c r="J33" t="n">
+        <v>240.3662721893491</v>
+      </c>
+      <c r="K33" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1736,6 +1837,9 @@
         <v>4.683244894063753</v>
       </c>
       <c r="J34" t="n">
+        <v>2.106508875739645</v>
+      </c>
+      <c r="K34" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1774,6 +1878,9 @@
         <v>198.8444937281591</v>
       </c>
       <c r="J35" t="n">
+        <v>118.1262512075275</v>
+      </c>
+      <c r="K35" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1812,6 +1919,9 @@
         <v>55.42098043519755</v>
       </c>
       <c r="J36" t="n">
+        <v>27.09644970414201</v>
+      </c>
+      <c r="K36" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1850,6 +1960,9 @@
         <v>204.6607900773782</v>
       </c>
       <c r="J37" t="n">
+        <v>105.2254437869822</v>
+      </c>
+      <c r="K37" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1888,6 +2001,9 @@
         <v>34.21948625130526</v>
       </c>
       <c r="J38" t="n">
+        <v>47.25680473372781</v>
+      </c>
+      <c r="K38" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1926,6 +2042,9 @@
         <v>22.0730523573201</v>
       </c>
       <c r="J39" t="n">
+        <v>21.50423076923077</v>
+      </c>
+      <c r="K39" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -1964,6 +2083,9 @@
         <v>83.22344356227997</v>
       </c>
       <c r="J40" t="n">
+        <v>165.5041420118343</v>
+      </c>
+      <c r="K40" t="n">
         <v>2014.640162014776</v>
       </c>
     </row>
@@ -2002,6 +2124,9 @@
         <v>794.4925149739584</v>
       </c>
       <c r="J41" t="n">
+        <v>278.932421875</v>
+      </c>
+      <c r="K41" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2040,6 +2165,9 @@
         <v>51.22290468750001</v>
       </c>
       <c r="J42" t="n">
+        <v>24.176953125</v>
+      </c>
+      <c r="K42" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2078,6 +2206,9 @@
         <v>5.021374327143378</v>
       </c>
       <c r="J43" t="n">
+        <v>25.16237687883196</v>
+      </c>
+      <c r="K43" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2116,6 +2247,9 @@
         <v>107.5313418571035</v>
       </c>
       <c r="J44" t="n">
+        <v>55.31171875</v>
+      </c>
+      <c r="K44" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2154,6 +2288,9 @@
         <v>216.912691535739</v>
       </c>
       <c r="J45" t="n">
+        <v>178.257421875</v>
+      </c>
+      <c r="K45" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2192,6 +2329,9 @@
         <v>396.4450528842957</v>
       </c>
       <c r="J46" t="n">
+        <v>216.6702076530175</v>
+      </c>
+      <c r="K46" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2230,6 +2370,9 @@
         <v>4.49494898248488</v>
       </c>
       <c r="J47" t="n">
+        <v>2.02181396484375</v>
+      </c>
+      <c r="K47" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2268,6 +2411,9 @@
         <v>179.7815627432959</v>
       </c>
       <c r="J48" t="n">
+        <v>106.80166015625</v>
+      </c>
+      <c r="K48" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2306,6 +2452,9 @@
         <v>50.35568214465725</v>
       </c>
       <c r="J49" t="n">
+        <v>24.619921875</v>
+      </c>
+      <c r="K49" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2344,6 +2493,9 @@
         <v>206.5501988782052</v>
       </c>
       <c r="J50" t="n">
+        <v>106.196875</v>
+      </c>
+      <c r="K50" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2382,6 +2534,9 @@
         <v>35.09679434742647</v>
       </c>
       <c r="J51" t="n">
+        <v>48.468359375</v>
+      </c>
+      <c r="K51" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2420,6 +2575,9 @@
         <v>16.79627811374888</v>
       </c>
       <c r="J52" t="n">
+        <v>16.36343876575157</v>
+      </c>
+      <c r="K52" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2458,6 +2616,9 @@
         <v>88.02753236908391</v>
       </c>
       <c r="J53" t="n">
+        <v>175.0578994879202</v>
+      </c>
+      <c r="K53" t="n">
         <v>1929.967584847036</v>
       </c>
     </row>
@@ -2496,6 +2657,9 @@
         <v>760.9492219343696</v>
       </c>
       <c r="J54" t="n">
+        <v>267.1559585492228</v>
+      </c>
+      <c r="K54" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2534,6 +2698,9 @@
         <v>56.90541070811746</v>
       </c>
       <c r="J55" t="n">
+        <v>26.85906735751296</v>
+      </c>
+      <c r="K55" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2572,6 +2739,9 @@
         <v>5.007694737694302</v>
       </c>
       <c r="J56" t="n">
+        <v>25.09382772020725</v>
+      </c>
+      <c r="K56" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2610,6 +2780,9 @@
         <v>128.5058134715025</v>
       </c>
       <c r="J57" t="n">
+        <v>66.10051813471502</v>
+      </c>
+      <c r="K57" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2648,6 +2821,9 @@
         <v>249.5370144276186</v>
       </c>
       <c r="J58" t="n">
+        <v>205.0678756476684</v>
+      </c>
+      <c r="K58" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2686,6 +2862,9 @@
         <v>362.9778523350278</v>
       </c>
       <c r="J59" t="n">
+        <v>198.3792862760987</v>
+      </c>
+      <c r="K59" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2724,6 +2903,9 @@
         <v>6.288388433896039</v>
       </c>
       <c r="J60" t="n">
+        <v>2.828497409326425</v>
+      </c>
+      <c r="K60" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2762,6 +2944,9 @@
         <v>151.4124589602644</v>
       </c>
       <c r="J61" t="n">
+        <v>89.94861174049582</v>
+      </c>
+      <c r="K61" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2800,6 +2985,9 @@
         <v>55.68258256727394</v>
       </c>
       <c r="J62" t="n">
+        <v>27.22435233160622</v>
+      </c>
+      <c r="K62" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2838,6 +3026,9 @@
         <v>191.0398156768966</v>
       </c>
       <c r="J63" t="n">
+        <v>98.22227979274612</v>
+      </c>
+      <c r="K63" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2876,6 +3067,9 @@
         <v>37.96777689728741</v>
       </c>
       <c r="J64" t="n">
+        <v>52.43316062176166</v>
+      </c>
+      <c r="K64" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2914,6 +3108,9 @@
         <v>18.17856578569341</v>
       </c>
       <c r="J65" t="n">
+        <v>17.71010494520728</v>
+      </c>
+      <c r="K65" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2952,6 +3149,9 @@
         <v>81.56508854200827</v>
       </c>
       <c r="J66" t="n">
+        <v>162.2062176165803</v>
+      </c>
+      <c r="K66" t="n">
         <v>1876.809261038845</v>
       </c>
     </row>
@@ -2990,6 +3190,9 @@
         <v>766.6687933333333</v>
       </c>
       <c r="J67" t="n">
+        <v>269.164</v>
+      </c>
+      <c r="K67" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3028,6 +3231,9 @@
         <v>53.40876177777779</v>
       </c>
       <c r="J68" t="n">
+        <v>25.20866666666667</v>
+      </c>
+      <c r="K68" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3066,6 +3272,9 @@
         <v>4.94200774509804</v>
       </c>
       <c r="J69" t="n">
+        <v>24.76466666666667</v>
+      </c>
+      <c r="K69" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3104,6 +3313,9 @@
         <v>138.1254937738619</v>
       </c>
       <c r="J70" t="n">
+        <v>71.04866666666666</v>
+      </c>
+      <c r="K70" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3142,6 +3354,9 @@
         <v>286.6146104972376</v>
       </c>
       <c r="J71" t="n">
+        <v>235.538</v>
+      </c>
+      <c r="K71" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3180,6 +3395,9 @@
         <v>348.3727643975188</v>
       </c>
       <c r="J72" t="n">
+        <v>190.3971273030261</v>
+      </c>
+      <c r="K72" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3218,6 +3436,9 @@
         <v>5.187526881720431</v>
       </c>
       <c r="J73" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="K73" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3256,6 +3477,9 @@
         <v>154.3308703114187</v>
       </c>
       <c r="J74" t="n">
+        <v>91.68233333333333</v>
+      </c>
+      <c r="K74" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3294,6 +3518,9 @@
         <v>31.7393158064516</v>
       </c>
       <c r="J75" t="n">
+        <v>15.518</v>
+      </c>
+      <c r="K75" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3332,6 +3559,9 @@
         <v>194.3846273846154</v>
       </c>
       <c r="J76" t="n">
+        <v>99.94199999999999</v>
+      </c>
+      <c r="K76" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3370,6 +3600,9 @@
         <v>44.22572666666666</v>
       </c>
       <c r="J77" t="n">
+        <v>61.07533333333333</v>
+      </c>
+      <c r="K77" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3408,6 +3641,9 @@
         <v>12.32133283634815</v>
       </c>
       <c r="J78" t="n">
+        <v>12.00381263126313</v>
+      </c>
+      <c r="K78" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3446,6 +3682,9 @@
         <v>84.10771434599157</v>
       </c>
       <c r="J79" t="n">
+        <v>167.2626666666667</v>
+      </c>
+      <c r="K79" t="n">
         <v>1774.764181007011</v>
       </c>
     </row>
@@ -3484,6 +3723,9 @@
         <v>814.2571190476189</v>
       </c>
       <c r="J80" t="n">
+        <v>285.8714285714286</v>
+      </c>
+      <c r="K80" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3522,6 +3764,9 @@
         <v>59.21673333333334</v>
       </c>
       <c r="J81" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="K81" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3560,6 +3805,9 @@
         <v>4.732394957983194</v>
       </c>
       <c r="J82" t="n">
+        <v>23.71428571428572</v>
+      </c>
+      <c r="K82" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3598,6 +3846,9 @@
         <v>174.8020855884203</v>
       </c>
       <c r="J83" t="n">
+        <v>89.91428571428571</v>
+      </c>
+      <c r="K83" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3636,6 +3887,9 @@
         <v>250.7668804262037</v>
       </c>
       <c r="J84" t="n">
+        <v>206.0785714285714</v>
+      </c>
+      <c r="K84" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3674,6 +3928,9 @@
         <v>383.5347161266569</v>
       </c>
       <c r="J85" t="n">
+        <v>209.6142857142857</v>
+      </c>
+      <c r="K85" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3712,6 +3969,9 @@
         <v>95.68482056351955</v>
       </c>
       <c r="J86" t="n">
+        <v>56.84285714285714</v>
+      </c>
+      <c r="K86" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3750,6 +4010,9 @@
         <v>2.746576036866359</v>
       </c>
       <c r="J87" t="n">
+        <v>1.342857142857143</v>
+      </c>
+      <c r="K87" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3788,6 +4051,9 @@
         <v>185.0087395604395</v>
       </c>
       <c r="J88" t="n">
+        <v>95.12142857142855</v>
+      </c>
+      <c r="K88" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3826,6 +4092,9 @@
         <v>50.21755882352941</v>
       </c>
       <c r="J89" t="n">
+        <v>69.34999999999999</v>
+      </c>
+      <c r="K89" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3864,6 +4133,9 @@
         <v>12.9186267281106</v>
       </c>
       <c r="J90" t="n">
+        <v>12.58571428571429</v>
+      </c>
+      <c r="K90" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3902,6 +4174,9 @@
         <v>76.84596518987343</v>
       </c>
       <c r="J91" t="n">
+        <v>152.8214285714286</v>
+      </c>
+      <c r="K91" t="n">
         <v>1766.354821087134</v>
       </c>
     </row>
@@ -3940,6 +4215,9 @@
         <v>1153.776058823529</v>
       </c>
       <c r="J92" t="n">
+        <v>405.0705882352941</v>
+      </c>
+      <c r="K92" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -3978,6 +4256,9 @@
         <v>41.02735686274511</v>
       </c>
       <c r="J93" t="n">
+        <v>19.36470588235294</v>
+      </c>
+      <c r="K93" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4016,6 +4297,9 @@
         <v>8.870976643598619</v>
       </c>
       <c r="J94" t="n">
+        <v>44.45294117647059</v>
+      </c>
+      <c r="K94" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4054,6 +4338,9 @@
         <v>59.82100570095876</v>
       </c>
       <c r="J95" t="n">
+        <v>30.77058823529411</v>
+      </c>
+      <c r="K95" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4092,6 +4379,9 @@
         <v>130.7112528436789</v>
       </c>
       <c r="J96" t="n">
+        <v>107.4176470588235</v>
+      </c>
+      <c r="K96" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4130,6 +4420,9 @@
         <v>780.3848480897515</v>
       </c>
       <c r="J97" t="n">
+        <v>426.5058823529412</v>
+      </c>
+      <c r="K97" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4168,6 +4461,9 @@
         <v>185.8189228577245</v>
       </c>
       <c r="J98" t="n">
+        <v>110.3882352941176</v>
+      </c>
+      <c r="K98" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4206,6 +4502,9 @@
         <v>25.5545009487666</v>
       </c>
       <c r="J99" t="n">
+        <v>12.49411764705882</v>
+      </c>
+      <c r="K99" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4244,6 +4543,9 @@
         <v>472.7889435897436</v>
       </c>
       <c r="J100" t="n">
+        <v>243.0823529411765</v>
+      </c>
+      <c r="K100" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4282,6 +4584,9 @@
         <v>49.29963321799309</v>
       </c>
       <c r="J101" t="n">
+        <v>68.08235294117648</v>
+      </c>
+      <c r="K101" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4320,6 +4625,9 @@
         <v>21.48340768422193</v>
       </c>
       <c r="J102" t="n">
+        <v>20.92978121341546</v>
+      </c>
+      <c r="K102" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4358,6 +4666,9 @@
         <v>72.27701973194343</v>
       </c>
       <c r="J103" t="n">
+        <v>143.7352941176471</v>
+      </c>
+      <c r="K103" t="n">
         <v>3240.032054886964</v>
       </c>
     </row>
@@ -4396,6 +4707,9 @@
         <v>1516.045425619835</v>
       </c>
       <c r="J104" t="n">
+        <v>532.2570247933884</v>
+      </c>
+      <c r="K104" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4434,6 +4748,9 @@
         <v>74.6278446280992</v>
       </c>
       <c r="J105" t="n">
+        <v>35.22396694214876</v>
+      </c>
+      <c r="K105" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4472,6 +4789,9 @@
         <v>7.676152037796713</v>
       </c>
       <c r="J106" t="n">
+        <v>38.46561080104468</v>
+      </c>
+      <c r="K106" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4510,6 +4830,9 @@
         <v>96.93652830669527</v>
       </c>
       <c r="J107" t="n">
+        <v>49.86198347107438</v>
+      </c>
+      <c r="K107" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4548,6 +4871,9 @@
         <v>162.9866090589471</v>
       </c>
       <c r="J108" t="n">
+        <v>133.9413223140496</v>
+      </c>
+      <c r="K108" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4586,6 +4912,9 @@
         <v>676.8075497269376</v>
       </c>
       <c r="J109" t="n">
+        <v>369.8974959419263</v>
+      </c>
+      <c r="K109" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4624,6 +4953,9 @@
         <v>4.665099440149294</v>
       </c>
       <c r="J110" t="n">
+        <v>2.098347107438017</v>
+      </c>
+      <c r="K110" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4662,6 +4994,9 @@
         <v>266.0869896243121</v>
       </c>
       <c r="J111" t="n">
+        <v>158.0725620815371</v>
+      </c>
+      <c r="K111" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4700,6 +5035,9 @@
         <v>97.80698773660355</v>
       </c>
       <c r="J112" t="n">
+        <v>47.8198347107438</v>
+      </c>
+      <c r="K112" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4738,6 +5076,9 @@
         <v>395.0484035600763</v>
       </c>
       <c r="J113" t="n">
+        <v>203.1123966942149</v>
+      </c>
+      <c r="K113" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4776,6 +5117,9 @@
         <v>40.08679387457462</v>
       </c>
       <c r="J114" t="n">
+        <v>55.35950413223141</v>
+      </c>
+      <c r="K114" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4814,6 +5158,9 @@
         <v>20.41891167806014</v>
       </c>
       <c r="J115" t="n">
+        <v>19.89271722249731</v>
+      </c>
+      <c r="K115" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4852,6 +5199,9 @@
         <v>101.0607169559946</v>
       </c>
       <c r="J116" t="n">
+        <v>200.9766303215501</v>
+      </c>
+      <c r="K116" t="n">
         <v>3017.974811560767</v>
       </c>
     </row>
@@ -4890,6 +5240,9 @@
         <v>1357.547082107843</v>
       </c>
       <c r="J117" t="n">
+        <v>476.6110294117647</v>
+      </c>
+      <c r="K117" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -4928,6 +5281,9 @@
         <v>59.78846176470589</v>
       </c>
       <c r="J118" t="n">
+        <v>28.21985294117647</v>
+      </c>
+      <c r="K118" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -4966,6 +5322,9 @@
         <v>7.806124891868514</v>
       </c>
       <c r="J119" t="n">
+        <v>39.11691176470588</v>
+      </c>
+      <c r="K119" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5004,6 +5363,9 @@
         <v>137.8178880862918</v>
       </c>
       <c r="J120" t="n">
+        <v>70.89044117647059</v>
+      </c>
+      <c r="K120" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5042,6 +5404,9 @@
         <v>161.4939998375041</v>
       </c>
       <c r="J121" t="n">
+        <v>132.7147058823529</v>
+      </c>
+      <c r="K121" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5080,6 +5445,9 @@
         <v>602.8101996755702</v>
       </c>
       <c r="J122" t="n">
+        <v>329.4555202261085</v>
+      </c>
+      <c r="K122" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5118,6 +5486,9 @@
         <v>6.305133776091082</v>
       </c>
       <c r="J123" t="n">
+        <v>2.836029411764706</v>
+      </c>
+      <c r="K123" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5156,6 +5527,9 @@
         <v>225.7966973185775</v>
       </c>
       <c r="J124" t="n">
+        <v>134.1375709691434</v>
+      </c>
+      <c r="K124" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5194,6 +5568,9 @@
         <v>67.87914314516128</v>
       </c>
       <c r="J125" t="n">
+        <v>33.1875</v>
+      </c>
+      <c r="K125" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5232,6 +5609,9 @@
         <v>339.0862576923077</v>
       </c>
       <c r="J126" t="n">
+        <v>174.3397058823529</v>
+      </c>
+      <c r="K126" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5270,6 +5650,9 @@
         <v>46.0389740484429</v>
       </c>
       <c r="J127" t="n">
+        <v>63.57941176470587</v>
+      </c>
+      <c r="K127" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5308,6 +5691,9 @@
         <v>22.06265068616682</v>
       </c>
       <c r="J128" t="n">
+        <v>21.49409714868546</v>
+      </c>
+      <c r="K128" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5346,6 +5732,9 @@
         <v>78.86506934102755</v>
       </c>
       <c r="J129" t="n">
+        <v>156.8367647058824</v>
+      </c>
+      <c r="K129" t="n">
         <v>2751.474454504555</v>
       </c>
     </row>
@@ -5384,6 +5773,9 @@
         <v>1233.551108007449</v>
       </c>
       <c r="J130" t="n">
+        <v>433.0782122905028</v>
+      </c>
+      <c r="K130" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5422,6 +5814,9 @@
         <v>47.85582718808194</v>
       </c>
       <c r="J131" t="n">
+        <v>22.5877094972067</v>
+      </c>
+      <c r="K131" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5460,6 +5855,9 @@
         <v>8.50428060943816</v>
       </c>
       <c r="J132" t="n">
+        <v>42.61540762282939</v>
+      </c>
+      <c r="K132" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5498,6 +5896,9 @@
         <v>119.260027982182</v>
       </c>
       <c r="J133" t="n">
+        <v>61.34469273743017</v>
+      </c>
+      <c r="K133" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5536,6 +5937,9 @@
         <v>186.5547887280472</v>
       </c>
       <c r="J134" t="n">
+        <v>153.3094972067039</v>
+      </c>
+      <c r="K134" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5574,6 +5978,9 @@
         <v>557.1629833122157</v>
       </c>
       <c r="J135" t="n">
+        <v>304.5078212290503</v>
+      </c>
+      <c r="K135" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5612,6 +6019,9 @@
         <v>3.868909713461885</v>
       </c>
       <c r="J136" t="n">
+        <v>1.740223463687151</v>
+      </c>
+      <c r="K136" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5650,6 +6060,9 @@
         <v>193.923078312719</v>
       </c>
       <c r="J137" t="n">
+        <v>115.2026180570132</v>
+      </c>
+      <c r="K137" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5688,6 +6101,9 @@
         <v>68.40289998197872</v>
       </c>
       <c r="J138" t="n">
+        <v>33.44357541899441</v>
+      </c>
+      <c r="K138" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5726,6 +6142,9 @@
         <v>344.0290204555222</v>
       </c>
       <c r="J139" t="n">
+        <v>176.8810055865922</v>
+      </c>
+      <c r="K139" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5764,6 +6183,9 @@
         <v>53.5644791324351</v>
       </c>
       <c r="J140" t="n">
+        <v>73.97206703910615</v>
+      </c>
+      <c r="K140" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5802,6 +6224,9 @@
         <v>18.90023843425179</v>
       </c>
       <c r="J141" t="n">
+        <v>18.41318012136409</v>
+      </c>
+      <c r="K141" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5840,6 +6265,9 @@
         <v>79.37780404764975</v>
       </c>
       <c r="J142" t="n">
+        <v>157.8564259223242</v>
+      </c>
+      <c r="K142" t="n">
         <v>2539.788446542829</v>
       </c>
     </row>
@@ -5878,6 +6306,9 @@
         <v>1173.286356770833</v>
       </c>
       <c r="J143" t="n">
+        <v>411.9203125</v>
+      </c>
+      <c r="K143" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -5916,6 +6347,9 @@
         <v>61.9853451388889</v>
       </c>
       <c r="J144" t="n">
+        <v>29.25677083333333</v>
+      </c>
+      <c r="K144" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -5954,6 +6388,9 @@
         <v>7.501125153186276</v>
       </c>
       <c r="J145" t="n">
+        <v>37.58854166666666</v>
+      </c>
+      <c r="K145" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -5992,6 +6429,9 @@
         <v>179.2771247476138</v>
       </c>
       <c r="J146" t="n">
+        <v>92.21614583333333</v>
+      </c>
+      <c r="K146" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6030,6 +6470,9 @@
         <v>217.5215922824586</v>
       </c>
       <c r="J147" t="n">
+        <v>178.7578125</v>
+      </c>
+      <c r="K147" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6068,6 +6511,9 @@
         <v>520.8808097538134</v>
       </c>
       <c r="J148" t="n">
+        <v>284.6784248932706</v>
+      </c>
+      <c r="K148" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6106,6 +6552,9 @@
         <v>6.769259408602152</v>
       </c>
       <c r="J149" t="n">
+        <v>3.044791666666667</v>
+      </c>
+      <c r="K149" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6144,6 +6593,9 @@
         <v>175.7162902988852</v>
       </c>
       <c r="J150" t="n">
+        <v>104.3866302754025</v>
+      </c>
+      <c r="K150" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6182,6 +6634,9 @@
         <v>60.62463961693548</v>
       </c>
       <c r="J151" t="n">
+        <v>29.640625</v>
+      </c>
+      <c r="K151" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6220,6 +6675,9 @@
         <v>332.7868855836005</v>
       </c>
       <c r="J152" t="n">
+        <v>171.1009114583333</v>
+      </c>
+      <c r="K152" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6258,6 +6716,9 @@
         <v>68.35067156862745</v>
       </c>
       <c r="J153" t="n">
+        <v>94.39166666666667</v>
+      </c>
+      <c r="K153" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6296,6 +6757,9 @@
         <v>17.27566991990614</v>
       </c>
       <c r="J154" t="n">
+        <v>16.8304766661562</v>
+      </c>
+      <c r="K154" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6334,6 +6798,9 @@
         <v>84.44102930511605</v>
       </c>
       <c r="J155" t="n">
+        <v>167.9255208333333</v>
+      </c>
+      <c r="K155" t="n">
         <v>2480.816055210325</v>
       </c>
     </row>
@@ -6372,6 +6839,9 @@
         <v>1037.685531862745</v>
       </c>
       <c r="J156" t="n">
+        <v>364.3132352941176</v>
+      </c>
+      <c r="K156" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6410,6 +6880,9 @@
         <v>55.48725686274511</v>
       </c>
       <c r="J157" t="n">
+        <v>26.18970588235294</v>
+      </c>
+      <c r="K157" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6448,6 +6921,9 @@
         <v>7.212759474673252</v>
       </c>
       <c r="J158" t="n">
+        <v>36.14352573896691</v>
+      </c>
+      <c r="K158" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6486,6 +6962,9 @@
         <v>210.7010331908093</v>
       </c>
       <c r="J159" t="n">
+        <v>108.3799019607843</v>
+      </c>
+      <c r="K159" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6524,6 +7003,9 @@
         <v>261.6294896273427</v>
       </c>
       <c r="J160" t="n">
+        <v>215.0053921568627</v>
+      </c>
+      <c r="K160" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6562,6 +7044,9 @@
         <v>501.7386684829809</v>
       </c>
       <c r="J161" t="n">
+        <v>274.2166176544118</v>
+      </c>
+      <c r="K161" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6600,6 +7085,9 @@
         <v>6.94867046173308</v>
       </c>
       <c r="J162" t="n">
+        <v>3.125490196078431</v>
+      </c>
+      <c r="K162" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6638,6 +7126,9 @@
         <v>151.2714724386675</v>
       </c>
       <c r="J163" t="n">
+        <v>89.86485679735011</v>
+      </c>
+      <c r="K163" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6676,6 +7167,9 @@
         <v>51.0027253320683</v>
       </c>
       <c r="J164" t="n">
+        <v>24.93627450980392</v>
+      </c>
+      <c r="K164" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6714,6 +7208,9 @@
         <v>284.9253957264957</v>
       </c>
       <c r="J165" t="n">
+        <v>146.493137254902</v>
+      </c>
+      <c r="K165" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6752,6 +7249,9 @@
         <v>79.70902479815454</v>
       </c>
       <c r="J166" t="n">
+        <v>110.0774509803922</v>
+      </c>
+      <c r="K166" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6790,6 +7290,9 @@
         <v>13.88127646742379</v>
       </c>
       <c r="J167" t="n">
+        <v>13.52355658359954</v>
+      </c>
+      <c r="K167" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6828,6 +7331,9 @@
         <v>74.72569278977414</v>
       </c>
       <c r="J168" t="n">
+        <v>148.6049019607843</v>
+      </c>
+      <c r="K168" t="n">
         <v>2369.784051287819</v>
       </c>
     </row>
@@ -6866,6 +7372,9 @@
         <v>862.3438717948718</v>
       </c>
       <c r="J169" t="n">
+        <v>302.7538461538462</v>
+      </c>
+      <c r="K169" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -6904,6 +7413,9 @@
         <v>51.19024615384615</v>
       </c>
       <c r="J170" t="n">
+        <v>24.16153846153846</v>
+      </c>
+      <c r="K170" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -6942,6 +7454,9 @@
         <v>8.341558823529413</v>
       </c>
       <c r="J171" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="K171" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -6980,6 +7495,9 @@
         <v>219.3539505252456</v>
       </c>
       <c r="J172" t="n">
+        <v>112.8307692307692</v>
+      </c>
+      <c r="K172" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -7018,6 +7536,9 @@
         <v>264.1034317892053</v>
       </c>
       <c r="J173" t="n">
+        <v>217.0384615384615</v>
+      </c>
+      <c r="K173" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -7056,6 +7577,9 @@
         <v>548.672835873898</v>
       </c>
       <c r="J174" t="n">
+        <v>299.8676775443669</v>
+      </c>
+      <c r="K174" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -7094,6 +7618,9 @@
         <v>4.104416873449132</v>
       </c>
       <c r="J175" t="n">
+        <v>1.846153846153846</v>
+      </c>
+      <c r="K175" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -7132,6 +7659,9 @@
         <v>143.5226063348417</v>
       </c>
       <c r="J176" t="n">
+        <v>85.26153846153846</v>
+      </c>
+      <c r="K176" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -7170,6 +7700,9 @@
         <v>56.18343796526054</v>
       </c>
       <c r="J177" t="n">
+        <v>27.46923076923077</v>
+      </c>
+      <c r="K177" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -7208,6 +7741,9 @@
         <v>353.2223049309665</v>
       </c>
       <c r="J178" t="n">
+        <v>181.6076923076923</v>
+      </c>
+      <c r="K178" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -7246,6 +7782,9 @@
         <v>84.54909049773757</v>
       </c>
       <c r="J179" t="n">
+        <v>116.7615384615385</v>
+      </c>
+      <c r="K179" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -7284,6 +7823,9 @@
         <v>18.32610918114144</v>
       </c>
       <c r="J180" t="n">
+        <v>17.85384615384615</v>
+      </c>
+      <c r="K180" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
@@ -7322,6 +7864,9 @@
         <v>80.20040408958131</v>
       </c>
       <c r="J181" t="n">
+        <v>159.4923076923077</v>
+      </c>
+      <c r="K181" t="n">
         <v>2391.344315340491</v>
       </c>
     </row>
